--- a/Report/Workbook1.xlsx
+++ b/Report/Workbook1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ping-pong" sheetId="1" r:id="rId1"/>
     <sheet name="Broadcast - Reduce" sheetId="2" r:id="rId2"/>
+    <sheet name="Quick Sort" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>Size</t>
   </si>
@@ -58,6 +59,9 @@
   </si>
   <si>
     <t>Non-Blocking - Bandwidth (MB/s)</t>
+  </si>
+  <si>
+    <t>SIZE</t>
   </si>
   <si>
     <t>SIZE (MB)</t>
@@ -116,6 +120,24 @@
   <si>
     <t>100MB</t>
   </si>
+  <si>
+    <t>Trial 1</t>
+  </si>
+  <si>
+    <t>Trial 2</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Sequencial</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
 </sst>
 </file>
 
@@ -126,8 +148,16 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -280,109 +310,111 @@
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5955,24 +5987,24 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="31">
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="33">
         <v>2</v>
       </c>
-      <c r="AB4" s="31">
+      <c r="AB4" s="33">
         <v>4</v>
       </c>
-      <c r="AC4" s="31">
+      <c r="AC4" s="33">
         <v>8</v>
       </c>
-      <c r="AD4" s="31">
+      <c r="AD4" s="33">
         <v>16</v>
       </c>
-      <c r="AE4" s="31">
+      <c r="AE4" s="33">
         <v>32</v>
       </c>
-      <c r="AF4" s="31">
+      <c r="AF4" s="33">
         <v>56</v>
       </c>
     </row>
@@ -6058,33 +6090,33 @@
         <f t="shared" si="1"/>
         <v>7.1770334928229667E-3</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="33">
         <v>1</v>
       </c>
-      <c r="Z5" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA5" s="24">
+      <c r="Z5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="26">
         <f ca="1">INDIRECT("J"&amp;(5 + (Y5 - 1) * 3))</f>
         <v>1.2933333333333332E-3</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB5" s="26">
         <f ca="1">INDIRECT("K"&amp;(5 + ($Y5 - 1) * 3))</f>
         <v>2.9700000000000001E-4</v>
       </c>
-      <c r="AC5" s="24">
+      <c r="AC5" s="26">
         <f ca="1">INDIRECT("L"&amp;(5 + ($Y5 - 1) * 3))</f>
         <v>1.3390000000000001E-3</v>
       </c>
-      <c r="AD5" s="24">
+      <c r="AD5" s="26">
         <f ca="1">INDIRECT("M"&amp;(5 + ($Y5 - 1) * 3))</f>
         <v>1.0269999999999999E-3</v>
       </c>
-      <c r="AE5" s="24">
+      <c r="AE5" s="26">
         <f ca="1">INDIRECT("N"&amp;(5 + ($Y5 - 1) * 3))</f>
         <v>1.6166666666666665E-4</v>
       </c>
-      <c r="AF5" s="24">
+      <c r="AF5" s="26">
         <f ca="1">INDIRECT("O"&amp;(5 + ($Y5 - 1) * 3))</f>
         <v>1.3933333333333332E-4</v>
       </c>
@@ -6129,33 +6161,33 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
-      <c r="Y6" s="31">
+      <c r="Y6" s="33">
         <v>2</v>
       </c>
-      <c r="Z6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA6" s="24">
+      <c r="Z6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="26">
         <f t="shared" ref="AA6:AA13" ca="1" si="2">INDIRECT("J"&amp;(5 + (Y6 - 1) * 3))</f>
         <v>1.6170666666666667E-2</v>
       </c>
-      <c r="AB6" s="24">
+      <c r="AB6" s="26">
         <f t="shared" ref="AB6:AB13" ca="1" si="3">INDIRECT("K"&amp;(5 + ($Y6 - 1) * 3))</f>
         <v>2.52E-4</v>
       </c>
-      <c r="AC6" s="24">
+      <c r="AC6" s="26">
         <f t="shared" ref="AC6:AC13" ca="1" si="4">INDIRECT("L"&amp;(5 + ($Y6 - 1) * 3))</f>
         <v>9.8666666666666662E-5</v>
       </c>
-      <c r="AD6" s="24">
+      <c r="AD6" s="26">
         <f t="shared" ref="AD6:AD13" ca="1" si="5">INDIRECT("M"&amp;(5 + ($Y6 - 1) * 3))</f>
         <v>2.1623333333333334E-3</v>
       </c>
-      <c r="AE6" s="24">
+      <c r="AE6" s="26">
         <f t="shared" ref="AE6:AE13" ca="1" si="6">INDIRECT("N"&amp;(5 + ($Y6 - 1) * 3))</f>
         <v>1.0166666666666667E-4</v>
       </c>
-      <c r="AF6" s="24">
+      <c r="AF6" s="26">
         <f t="shared" ref="AF6:AF13" ca="1" si="7">INDIRECT("O"&amp;(5 + ($Y6 - 1) * 3))</f>
         <v>1.0899999999999999E-4</v>
       </c>
@@ -6200,33 +6232,33 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
-      <c r="Y7" s="31">
+      <c r="Y7" s="33">
         <v>3</v>
       </c>
-      <c r="Z7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA7" s="24">
+      <c r="Z7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="26">
         <f t="shared" ca="1" si="2"/>
         <v>5.5404333333333333E-2</v>
       </c>
-      <c r="AB7" s="24">
+      <c r="AB7" s="26">
         <f t="shared" ca="1" si="3"/>
         <v>1.6200000000000001E-4</v>
       </c>
-      <c r="AC7" s="24">
+      <c r="AC7" s="26">
         <f t="shared" ca="1" si="4"/>
         <v>2.7270000000000003E-3</v>
       </c>
-      <c r="AD7" s="24">
+      <c r="AD7" s="26">
         <f t="shared" ca="1" si="5"/>
         <v>3.3262333333333331E-2</v>
       </c>
-      <c r="AE7" s="24">
+      <c r="AE7" s="26">
         <f t="shared" ca="1" si="6"/>
         <v>9.7633333333333339E-3</v>
       </c>
-      <c r="AF7" s="24">
+      <c r="AF7" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>9.4666666666666659E-5</v>
       </c>
@@ -6313,33 +6345,33 @@
         <f t="shared" ref="W8" si="19">$Q8/O8/1000000</f>
         <v>9.1743119266055065E-2</v>
       </c>
-      <c r="Y8" s="31">
+      <c r="Y8" s="33">
         <v>4</v>
       </c>
-      <c r="Z8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA8" s="24">
+      <c r="Z8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA8" s="26">
         <f t="shared" ca="1" si="2"/>
         <v>4.4712666666666671E-2</v>
       </c>
-      <c r="AB8" s="24">
+      <c r="AB8" s="26">
         <f t="shared" ca="1" si="3"/>
         <v>1.5566666666666666E-4</v>
       </c>
-      <c r="AC8" s="24">
+      <c r="AC8" s="26">
         <f t="shared" ca="1" si="4"/>
         <v>2.5429999999999997E-3</v>
       </c>
-      <c r="AD8" s="24">
+      <c r="AD8" s="26">
         <f t="shared" ca="1" si="5"/>
         <v>5.6333333333333332E-5</v>
       </c>
-      <c r="AE8" s="24">
+      <c r="AE8" s="26">
         <f t="shared" ca="1" si="6"/>
         <v>5.1E-5</v>
       </c>
-      <c r="AF8" s="24">
+      <c r="AF8" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>6.2333333333333335E-5</v>
       </c>
@@ -6384,33 +6416,33 @@
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
-      <c r="Y9" s="31">
+      <c r="Y9" s="33">
         <v>5</v>
       </c>
-      <c r="Z9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA9" s="24">
+      <c r="Z9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA9" s="26">
         <f t="shared" ca="1" si="2"/>
         <v>4.2833333333333335E-4</v>
       </c>
-      <c r="AB9" s="24">
+      <c r="AB9" s="26">
         <f t="shared" ca="1" si="3"/>
         <v>1.3799999999999999E-4</v>
       </c>
-      <c r="AC9" s="24">
+      <c r="AC9" s="26">
         <f t="shared" ca="1" si="4"/>
         <v>2.7115E-2</v>
       </c>
-      <c r="AD9" s="24">
+      <c r="AD9" s="26">
         <f t="shared" ca="1" si="5"/>
         <v>1.6300000000000003E-4</v>
       </c>
-      <c r="AE9" s="24">
+      <c r="AE9" s="26">
         <f t="shared" ca="1" si="6"/>
         <v>1.4733333333333333E-4</v>
       </c>
-      <c r="AF9" s="24">
+      <c r="AF9" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>1.65E-4</v>
       </c>
@@ -6455,33 +6487,33 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
-      <c r="Y10" s="31">
+      <c r="Y10" s="33">
         <v>6</v>
       </c>
-      <c r="Z10" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA10" s="24">
+      <c r="Z10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA10" s="26">
         <f t="shared" ca="1" si="2"/>
         <v>1.6062999999999997E-2</v>
       </c>
-      <c r="AB10" s="24">
+      <c r="AB10" s="26">
         <f t="shared" ca="1" si="3"/>
         <v>1.3656666666666667E-3</v>
       </c>
-      <c r="AC10" s="24">
+      <c r="AC10" s="26">
         <f t="shared" ca="1" si="4"/>
         <v>2.0333333333333333E-4</v>
       </c>
-      <c r="AD10" s="24">
+      <c r="AD10" s="26">
         <f t="shared" ca="1" si="5"/>
         <v>1.0563333333333334E-3</v>
       </c>
-      <c r="AE10" s="24">
+      <c r="AE10" s="26">
         <f t="shared" ca="1" si="6"/>
         <v>1.2836666666666667E-3</v>
       </c>
-      <c r="AF10" s="24">
+      <c r="AF10" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>2.0100000000000001E-4</v>
       </c>
@@ -6568,33 +6600,33 @@
         <f t="shared" ref="W11" si="31">$Q11/O11/1000000</f>
         <v>1.0563380281690142</v>
       </c>
-      <c r="Y11" s="31">
+      <c r="Y11" s="33">
         <v>7</v>
       </c>
-      <c r="Z11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA11" s="24">
+      <c r="Z11" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="26">
         <f t="shared" ca="1" si="2"/>
         <v>1.2786666666666667E-3</v>
       </c>
-      <c r="AB11" s="24">
+      <c r="AB11" s="26">
         <f t="shared" ca="1" si="3"/>
         <v>1.1460000000000001E-3</v>
       </c>
-      <c r="AC11" s="24">
+      <c r="AC11" s="26">
         <f t="shared" ca="1" si="4"/>
         <v>1.1523333333333333E-3</v>
       </c>
-      <c r="AD11" s="24">
+      <c r="AD11" s="26">
         <f t="shared" ca="1" si="5"/>
         <v>1.5186E-2</v>
       </c>
-      <c r="AE11" s="24">
+      <c r="AE11" s="26">
         <f t="shared" ca="1" si="6"/>
         <v>1.1803333333333334E-3</v>
       </c>
-      <c r="AF11" s="24">
+      <c r="AF11" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>1.3276666666666669E-3</v>
       </c>
@@ -6639,33 +6671,33 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-      <c r="Y12" s="31">
+      <c r="Y12" s="33">
         <v>8</v>
       </c>
-      <c r="Z12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA12" s="24">
+      <c r="Z12" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="26">
         <f t="shared" ca="1" si="2"/>
         <v>0.16772100000000001</v>
       </c>
-      <c r="AB12" s="24">
+      <c r="AB12" s="26">
         <f t="shared" ca="1" si="3"/>
         <v>6.8446333333333331E-2</v>
       </c>
-      <c r="AC12" s="24">
+      <c r="AC12" s="26">
         <f t="shared" ca="1" si="4"/>
         <v>0.13153600000000001</v>
       </c>
-      <c r="AD12" s="24">
+      <c r="AD12" s="26">
         <f t="shared" ca="1" si="5"/>
         <v>0.13348166666666669</v>
       </c>
-      <c r="AE12" s="24">
+      <c r="AE12" s="26">
         <f t="shared" ca="1" si="6"/>
         <v>0.10085266666666666</v>
       </c>
-      <c r="AF12" s="24">
+      <c r="AF12" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>0.13333400000000001</v>
       </c>
@@ -6710,33 +6742,33 @@
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
-      <c r="Y13" s="31">
+      <c r="Y13" s="33">
         <v>9</v>
       </c>
-      <c r="Z13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="24">
+      <c r="Z13" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA13" s="26">
         <f t="shared" ca="1" si="2"/>
         <v>2.0277759999999998</v>
       </c>
-      <c r="AB13" s="24">
+      <c r="AB13" s="26">
         <f t="shared" ca="1" si="3"/>
         <v>1.9029976666666666</v>
       </c>
-      <c r="AC13" s="24">
+      <c r="AC13" s="26">
         <f t="shared" ca="1" si="4"/>
         <v>1.8649769999999999</v>
       </c>
-      <c r="AD13" s="24">
+      <c r="AD13" s="26">
         <f t="shared" ca="1" si="5"/>
         <v>2.2996226666666666</v>
       </c>
-      <c r="AE13" s="24">
+      <c r="AE13" s="26">
         <f t="shared" ca="1" si="6"/>
         <v>1.7025643333333331</v>
       </c>
-      <c r="AF13" s="24">
+      <c r="AF13" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>2.1996009999999999</v>
       </c>
@@ -7854,24 +7886,24 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="31">
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="33">
         <v>2</v>
       </c>
-      <c r="AB37" s="31">
+      <c r="AB37" s="33">
         <v>4</v>
       </c>
-      <c r="AC37" s="31">
+      <c r="AC37" s="33">
         <v>8</v>
       </c>
-      <c r="AD37" s="31">
+      <c r="AD37" s="33">
         <v>16</v>
       </c>
-      <c r="AE37" s="31">
+      <c r="AE37" s="33">
         <v>32</v>
       </c>
-      <c r="AF37" s="31">
+      <c r="AF37" s="33">
         <v>56</v>
       </c>
     </row>
@@ -7957,33 +7989,33 @@
         <f t="shared" si="105"/>
         <v>0.19999999999999998</v>
       </c>
-      <c r="Y38" s="31">
+      <c r="Y38" s="33">
         <v>1</v>
       </c>
-      <c r="Z38" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA38" s="24">
+      <c r="Z38" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA38" s="26">
         <f ca="1">INDIRECT("J"&amp;(38 + (Y38 - 1) * 3))</f>
         <v>3.8999999999999999E-5</v>
       </c>
-      <c r="AB38" s="24">
+      <c r="AB38" s="26">
         <f ca="1">INDIRECT("K"&amp;(38 + ($Y38 - 1) * 3))</f>
         <v>5.6666666666666669E-6</v>
       </c>
-      <c r="AC38" s="24">
+      <c r="AC38" s="26">
         <f ca="1">INDIRECT("L"&amp;(38 + ($Y38 - 1) * 3))</f>
         <v>6.6666666666666658E-6</v>
       </c>
-      <c r="AD38" s="24">
+      <c r="AD38" s="26">
         <f ca="1">INDIRECT("M"&amp;(38 + ($Y38 - 1) * 3))</f>
         <v>5.3333333333333328E-6</v>
       </c>
-      <c r="AE38" s="24">
+      <c r="AE38" s="26">
         <f ca="1">INDIRECT("N"&amp;(38 + ($Y38 - 1) * 3))</f>
         <v>5.3333333333333328E-6</v>
       </c>
-      <c r="AF38" s="24">
+      <c r="AF38" s="26">
         <f ca="1">INDIRECT("O"&amp;(38 + ($Y38 - 1) * 3))</f>
         <v>5.0000000000000004E-6</v>
       </c>
@@ -8028,33 +8060,33 @@
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-      <c r="Y39" s="31">
+      <c r="Y39" s="33">
         <v>2</v>
       </c>
-      <c r="Z39" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA39" s="24">
+      <c r="Z39" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA39" s="26">
         <f t="shared" ref="AA39:AA46" ca="1" si="106">INDIRECT("J"&amp;(38 + (Y39 - 1) * 3))</f>
         <v>3.3333333333333328E-5</v>
       </c>
-      <c r="AB39" s="24">
+      <c r="AB39" s="26">
         <f t="shared" ref="AB39:AB46" ca="1" si="107">INDIRECT("K"&amp;(38 + ($Y39 - 1) * 3))</f>
         <v>4.3333333333333331E-6</v>
       </c>
-      <c r="AC39" s="24">
+      <c r="AC39" s="26">
         <f t="shared" ref="AC39:AC46" ca="1" si="108">INDIRECT("L"&amp;(38 + ($Y39 - 1) * 3))</f>
         <v>6.3333333333333334E-6</v>
       </c>
-      <c r="AD39" s="24">
+      <c r="AD39" s="26">
         <f t="shared" ref="AD39:AD46" ca="1" si="109">INDIRECT("M"&amp;(38 + ($Y39 - 1) * 3))</f>
         <v>4.9999999999999996E-6</v>
       </c>
-      <c r="AE39" s="24">
+      <c r="AE39" s="26">
         <f t="shared" ref="AE39:AE46" ca="1" si="110">INDIRECT("N"&amp;(38 + ($Y39 - 1) * 3))</f>
         <v>5.6666666666666669E-6</v>
       </c>
-      <c r="AF39" s="24">
+      <c r="AF39" s="26">
         <f t="shared" ref="AF39:AF46" ca="1" si="111">INDIRECT("O"&amp;(38 + ($Y39 - 1) * 3))</f>
         <v>7.3333333333333331E-6</v>
       </c>
@@ -8099,33 +8131,33 @@
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
-      <c r="Y40" s="31">
+      <c r="Y40" s="33">
         <v>3</v>
       </c>
-      <c r="Z40" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA40" s="24">
+      <c r="Z40" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA40" s="26">
         <f t="shared" ca="1" si="106"/>
         <v>2.8666666666666668E-5</v>
       </c>
-      <c r="AB40" s="24">
+      <c r="AB40" s="26">
         <f t="shared" ca="1" si="107"/>
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="AC40" s="24">
+      <c r="AC40" s="26">
         <f t="shared" ca="1" si="108"/>
         <v>2.6666666666666664E-6</v>
       </c>
-      <c r="AD40" s="24">
+      <c r="AD40" s="26">
         <f t="shared" ca="1" si="109"/>
         <v>4.6666666666666663E-6</v>
       </c>
-      <c r="AE40" s="24">
+      <c r="AE40" s="26">
         <f t="shared" ca="1" si="110"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="AF40" s="24">
+      <c r="AF40" s="26">
         <f t="shared" ca="1" si="111"/>
         <v>5.6666666666666669E-6</v>
       </c>
@@ -8212,33 +8244,33 @@
         <f t="shared" ref="W41" si="123">$Q41/O41/1000000</f>
         <v>1.3636363636363638</v>
       </c>
-      <c r="Y41" s="31">
+      <c r="Y41" s="33">
         <v>4</v>
       </c>
-      <c r="Z41" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA41" s="24">
+      <c r="Z41" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA41" s="26">
         <f t="shared" ca="1" si="106"/>
         <v>2.3666666666666668E-5</v>
       </c>
-      <c r="AB41" s="24">
+      <c r="AB41" s="26">
         <f t="shared" ca="1" si="107"/>
         <v>6.3333333333333334E-6</v>
       </c>
-      <c r="AC41" s="24">
+      <c r="AC41" s="26">
         <f t="shared" ca="1" si="108"/>
         <v>5.6666666666666669E-6</v>
       </c>
-      <c r="AD41" s="24">
+      <c r="AD41" s="26">
         <f t="shared" ca="1" si="109"/>
         <v>6.3333333333333334E-6</v>
       </c>
-      <c r="AE41" s="24">
+      <c r="AE41" s="26">
         <f t="shared" ca="1" si="110"/>
         <v>8.333333333333332E-6</v>
       </c>
-      <c r="AF41" s="24">
+      <c r="AF41" s="26">
         <f t="shared" ca="1" si="111"/>
         <v>6.3333333333333334E-6</v>
       </c>
@@ -8283,33 +8315,33 @@
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-      <c r="Y42" s="31">
+      <c r="Y42" s="33">
         <v>5</v>
       </c>
-      <c r="Z42" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA42" s="24">
+      <c r="Z42" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA42" s="26">
         <f t="shared" ca="1" si="106"/>
         <v>9.066666666666667E-5</v>
       </c>
-      <c r="AB42" s="24">
+      <c r="AB42" s="26">
         <f t="shared" ca="1" si="107"/>
         <v>6.3333333333333332E-5</v>
       </c>
-      <c r="AC42" s="24">
+      <c r="AC42" s="26">
         <f t="shared" ca="1" si="108"/>
         <v>6.0999999999999999E-5</v>
       </c>
-      <c r="AD42" s="24">
+      <c r="AD42" s="26">
         <f t="shared" ca="1" si="109"/>
         <v>6.3E-5</v>
       </c>
-      <c r="AE42" s="24">
+      <c r="AE42" s="26">
         <f t="shared" ca="1" si="110"/>
         <v>6.4666666666666662E-5</v>
       </c>
-      <c r="AF42" s="24">
+      <c r="AF42" s="26">
         <f t="shared" ca="1" si="111"/>
         <v>6.433333333333333E-5</v>
       </c>
@@ -8354,33 +8386,33 @@
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
-      <c r="Y43" s="31">
+      <c r="Y43" s="33">
         <v>6</v>
       </c>
-      <c r="Z43" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA43" s="24">
+      <c r="Z43" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA43" s="26">
         <f t="shared" ca="1" si="106"/>
         <v>1.0266666666666666E-4</v>
       </c>
-      <c r="AB43" s="24">
+      <c r="AB43" s="26">
         <f t="shared" ca="1" si="107"/>
         <v>7.3666666666666664E-5</v>
       </c>
-      <c r="AC43" s="24">
+      <c r="AC43" s="26">
         <f t="shared" ca="1" si="108"/>
         <v>7.3333333333333331E-5</v>
       </c>
-      <c r="AD43" s="24">
+      <c r="AD43" s="26">
         <f t="shared" ca="1" si="109"/>
         <v>7.6666666666666669E-5</v>
       </c>
-      <c r="AE43" s="24">
+      <c r="AE43" s="26">
         <f t="shared" ca="1" si="110"/>
         <v>7.7666666666666653E-5</v>
       </c>
-      <c r="AF43" s="24">
+      <c r="AF43" s="26">
         <f t="shared" ca="1" si="111"/>
         <v>7.8666666666666663E-5</v>
       </c>
@@ -8467,33 +8499,33 @@
         <f t="shared" ref="W44" si="135">$Q44/O44/1000000</f>
         <v>17.647058823529409</v>
       </c>
-      <c r="Y44" s="31">
+      <c r="Y44" s="33">
         <v>7</v>
       </c>
-      <c r="Z44" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA44" s="24">
+      <c r="Z44" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA44" s="26">
         <f t="shared" ca="1" si="106"/>
         <v>9.0200000000000002E-4</v>
       </c>
-      <c r="AB44" s="24">
+      <c r="AB44" s="26">
         <f t="shared" ca="1" si="107"/>
         <v>8.5533333333333327E-4</v>
       </c>
-      <c r="AC44" s="24">
+      <c r="AC44" s="26">
         <f t="shared" ca="1" si="108"/>
         <v>6.4266666666666671E-4</v>
       </c>
-      <c r="AD44" s="24">
+      <c r="AD44" s="26">
         <f t="shared" ca="1" si="109"/>
         <v>6.8566666666666656E-4</v>
       </c>
-      <c r="AE44" s="24">
+      <c r="AE44" s="26">
         <f t="shared" ca="1" si="110"/>
         <v>3.7033333333333335E-4</v>
       </c>
-      <c r="AF44" s="24">
+      <c r="AF44" s="26">
         <f t="shared" ca="1" si="111"/>
         <v>4.2233333333333337E-4</v>
       </c>
@@ -8538,33 +8570,33 @@
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
-      <c r="Y45" s="31">
+      <c r="Y45" s="33">
         <v>8</v>
       </c>
-      <c r="Z45" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA45" s="24">
+      <c r="Z45" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA45" s="26">
         <f t="shared" ca="1" si="106"/>
         <v>6.9128666666666672E-2</v>
       </c>
-      <c r="AB45" s="24">
+      <c r="AB45" s="26">
         <f t="shared" ca="1" si="107"/>
         <v>3.9466666666666665E-4</v>
       </c>
-      <c r="AC45" s="24">
+      <c r="AC45" s="26">
         <f t="shared" ca="1" si="108"/>
         <v>6.1700000000000004E-4</v>
       </c>
-      <c r="AD45" s="24">
+      <c r="AD45" s="26">
         <f t="shared" ca="1" si="109"/>
         <v>6.8466666666666665E-4</v>
       </c>
-      <c r="AE45" s="24">
+      <c r="AE45" s="26">
         <f t="shared" ca="1" si="110"/>
         <v>3.7999999999999997E-4</v>
       </c>
-      <c r="AF45" s="24">
+      <c r="AF45" s="26">
         <f t="shared" ca="1" si="111"/>
         <v>4.4966666666666663E-4</v>
       </c>
@@ -8609,33 +8641,33 @@
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
-      <c r="Y46" s="31">
+      <c r="Y46" s="33">
         <v>9</v>
       </c>
-      <c r="Z46" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA46" s="24">
+      <c r="Z46" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA46" s="26">
         <f t="shared" ca="1" si="106"/>
         <v>1.0304983333333333</v>
       </c>
-      <c r="AB46" s="24">
+      <c r="AB46" s="26">
         <f t="shared" ca="1" si="107"/>
         <v>5.5599999999999996E-4</v>
       </c>
-      <c r="AC46" s="24">
+      <c r="AC46" s="26">
         <f t="shared" ca="1" si="108"/>
         <v>1.1193333333333335E-3</v>
       </c>
-      <c r="AD46" s="24">
+      <c r="AD46" s="26">
         <f t="shared" ca="1" si="109"/>
         <v>2.9972333333333333E-2</v>
       </c>
-      <c r="AE46" s="24">
+      <c r="AE46" s="26">
         <f t="shared" ca="1" si="110"/>
         <v>1.95E-4</v>
       </c>
-      <c r="AF46" s="24">
+      <c r="AF46" s="26">
         <f t="shared" ca="1" si="111"/>
         <v>1.8966666666666665E-4</v>
       </c>
@@ -9958,7 +9990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -9985,81 +10017,81 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="A2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="23">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23">
         <v>4</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21">
+      <c r="F2" s="24"/>
+      <c r="G2" s="23">
         <v>8</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21">
+      <c r="H2" s="24"/>
+      <c r="I2" s="23">
         <v>16</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21">
+      <c r="J2" s="24"/>
+      <c r="K2" s="23">
         <v>28</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="21">
+      <c r="L2" s="24"/>
+      <c r="M2" s="23">
         <v>56</v>
       </c>
-      <c r="N2" s="22"/>
+      <c r="N2" s="24"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>16</v>
+      <c r="N3" s="22" t="s">
+        <v>17</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -10067,474 +10099,474 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="32">
+      <c r="B4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="34">
         <f>0.003106</f>
         <v>3.1059999999999998E-3</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="34">
         <f>0.000433</f>
         <v>4.3300000000000001E-4</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="34">
         <f>0.052248</f>
         <v>5.2248000000000003E-2</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="34">
         <f>0.000455</f>
         <v>4.55E-4</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="34">
         <f>0.103673</f>
         <v>0.103673</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="34">
         <f>0.050732</f>
         <v>5.0731999999999999E-2</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="34">
         <f>0.106104</f>
         <v>0.106104</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="34">
         <f>0.04941</f>
         <v>4.9410000000000003E-2</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="34">
         <f>0.109358</f>
         <v>0.109358</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="34">
         <f>0.039978</f>
         <v>3.9978E-2</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="32">
+      <c r="A5" s="25"/>
+      <c r="B5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="34">
         <f>0.000816</f>
         <v>8.1599999999999999E-4</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="34">
         <f>0.000404</f>
         <v>4.0400000000000001E-4</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="34">
         <f>0.001587</f>
         <v>1.5870000000000001E-3</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="34">
         <f>0.000415</f>
         <v>4.15E-4</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="34">
         <f>0.00154</f>
         <v>1.5399999999999999E-3</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="34">
         <f>0.000417</f>
         <v>4.17E-4</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="34">
         <f>0.001457</f>
         <v>1.457E-3</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="34">
         <f>0.000407</f>
         <v>4.0700000000000003E-4</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="34">
         <f>0.002318</f>
         <v>2.3180000000000002E-3</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="34">
         <f>0.000408</f>
         <v>4.08E-4</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="32">
+      <c r="A6" s="25"/>
+      <c r="B6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="34">
         <f>0.001961</f>
         <v>1.9610000000000001E-3</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="34">
         <f>0.000418</f>
         <v>4.1800000000000002E-4</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="34">
         <f>0.039027</f>
         <v>3.9026999999999999E-2</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="34">
         <f>0.000439</f>
         <v>4.3899999999999999E-4</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="34">
         <f>0.090062</f>
         <v>9.0062000000000003E-2</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="34">
         <f>0.012998</f>
         <v>1.2997999999999999E-2</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="34">
         <f>0.098192</f>
         <v>9.8192000000000002E-2</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="34">
         <f>0.006578</f>
         <v>6.5779999999999996E-3</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="34">
         <f>0.104333</f>
         <v>0.104333</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="34">
         <f>0.003312</f>
         <v>3.3119999999999998E-3</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="A7" s="25">
         <v>10</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="32">
+      <c r="B7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="34">
         <f>0.026328</f>
         <v>2.6328000000000001E-2</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="34">
         <f>0.003539</f>
         <v>3.539E-3</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="34">
         <f>0.057194</f>
         <v>5.7194000000000002E-2</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="34">
         <f>0.00374</f>
         <v>3.7399999999999998E-3</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="34">
         <f>0.06002</f>
         <v>6.0019999999999997E-2</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="34">
         <f>0.004552</f>
         <v>4.5519999999999996E-3</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="34">
         <f>0.054136</f>
         <v>5.4135999999999997E-2</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="34">
         <f>0.055448</f>
         <v>5.5447999999999997E-2</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="34">
         <f>0.052233</f>
         <v>5.2233000000000002E-2</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="34">
         <f>0.048269</f>
         <v>4.8268999999999999E-2</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="32">
+      <c r="A8" s="25"/>
+      <c r="B8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="34">
         <f>0.003297</f>
         <v>3.297E-3</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="34">
         <f>0.003527</f>
         <v>3.5270000000000002E-3</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="34">
         <f>0.006915</f>
         <v>6.9150000000000001E-3</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="34">
         <f>0.003521</f>
         <v>3.5209999999999998E-3</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="34">
         <f>0.007914</f>
         <v>7.9139999999999992E-3</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="34">
         <f>0.003502</f>
         <v>3.5019999999999999E-3</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="34">
         <f>0.004801</f>
         <v>4.8009999999999997E-3</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="34">
         <f>0.0035</f>
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="34">
         <f>0.004652</f>
         <v>4.6519999999999999E-3</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="34">
         <f>0.003498</f>
         <v>3.4979999999999998E-3</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="32">
+      <c r="A9" s="25"/>
+      <c r="B9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="34">
         <f>0.014813</f>
         <v>1.4813E-2</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="34">
         <f>0.003533</f>
         <v>3.5330000000000001E-3</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="34">
         <f>0.037798</f>
         <v>3.7797999999999998E-2</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="34">
         <f>0.003577</f>
         <v>3.5769999999999999E-3</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="34">
         <f>0.050018</f>
         <v>5.0018E-2</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="34">
         <f>0.003646</f>
         <v>3.6459999999999999E-3</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="34">
         <f>0.030959</f>
         <v>3.0959E-2</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="34">
         <f>0.00691</f>
         <v>6.9100000000000003E-3</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="34">
         <f>0.03467</f>
         <v>3.4669999999999999E-2</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="34">
         <f>0.00686</f>
         <v>6.8599999999999998E-3</v>
       </c>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="A10" s="25">
         <v>100</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="32">
+      <c r="B10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="34">
         <f>0.247488</f>
         <v>0.24748800000000001</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="34">
         <f>0.035555</f>
         <v>3.5555000000000003E-2</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="34">
         <f>0.322779</f>
         <v>0.32277899999999998</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="34">
         <f>0.042312</f>
         <v>4.2312000000000002E-2</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="34">
         <f>0.325938</f>
         <v>0.32593800000000001</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="34">
         <f>0.087438</f>
         <v>8.7438000000000002E-2</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="34">
         <f>0.354113</f>
         <v>0.35411300000000001</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="34">
         <f>0.103755</f>
         <v>0.103755</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="34">
         <f>0.358151</f>
         <v>0.358151</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="34">
         <f>0.098009</f>
         <v>9.8008999999999999E-2</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="32">
+      <c r="A11" s="25"/>
+      <c r="B11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="34">
         <f>0.02715</f>
         <v>2.7150000000000001E-2</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="34">
         <f>0.035555</f>
         <v>3.5555000000000003E-2</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="34">
         <f>0.04627</f>
         <v>4.6269999999999999E-2</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="34">
         <f>0.035181</f>
         <v>3.5180999999999997E-2</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="34">
         <f>0.056577</f>
         <v>5.6577000000000002E-2</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="34">
         <f>0.035211</f>
         <v>3.5210999999999999E-2</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="34">
         <f>0.039286</f>
         <v>3.9286000000000001E-2</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="34">
         <f>0.035116</f>
         <v>3.5116000000000001E-2</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="34">
         <f>0.03726</f>
         <v>3.7260000000000001E-2</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="34">
         <f>0.035066</f>
         <v>3.5066E-2</v>
       </c>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="32">
+      <c r="A12" s="25"/>
+      <c r="B12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="34">
         <f>0.137319</f>
         <v>0.137319</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="34">
         <f xml:space="preserve"> 0.035555</f>
         <v>3.5555000000000003E-2</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="34">
         <f>0.252592</f>
         <v>0.25259199999999998</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="34">
         <f>0.03714</f>
         <v>3.7139999999999999E-2</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="34">
         <f>0.291272</f>
         <v>0.29127199999999998</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="34">
         <f>0.048351</f>
         <v>4.8350999999999998E-2</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="34">
         <f>0.300945</f>
         <v>0.30094500000000002</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="34">
         <f>0.040296</f>
         <v>4.0295999999999998E-2</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="34">
         <f>0.330593</f>
         <v>0.33059300000000003</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="34">
         <f>0.038582</f>
         <v>3.8581999999999998E-2</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -10582,67 +10614,67 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="B15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="30"/>
+      <c r="J15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33">
         <v>2</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="33">
         <v>4</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="33">
         <v>8</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="33">
         <v>16</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="33">
         <v>28</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="33">
         <v>56</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31">
+      <c r="J16" s="33"/>
+      <c r="K16" s="33">
         <v>2</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="33">
         <v>4</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="33">
         <v>8</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="33">
         <v>16</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="33">
         <v>28</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="33">
         <v>56</v>
       </c>
       <c r="Q16" s="3"/>
@@ -10650,58 +10682,58 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="31">
+      <c r="B17" s="33">
         <v>10</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="26">
         <f>C6</f>
         <v>1.9610000000000001E-3</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="26">
         <f>E6</f>
         <v>3.9026999999999999E-2</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="26">
         <f>G6</f>
         <v>9.0062000000000003E-2</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="26">
         <f>I6</f>
         <v>9.8192000000000002E-2</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="26">
         <f>K6</f>
         <v>0.104333</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="26">
         <f>M6</f>
         <v>0</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="31">
+      <c r="J17" s="33">
         <v>10</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="26">
         <f>D6</f>
         <v>4.1800000000000002E-4</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="26">
         <f>F6</f>
         <v>4.3899999999999999E-4</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="26">
         <f>H6</f>
         <v>1.2997999999999999E-2</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="26">
         <f>J6</f>
         <v>6.5779999999999996E-3</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="26">
         <f>L6</f>
         <v>3.3119999999999998E-3</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="26">
         <f>N6</f>
         <v>0</v>
       </c>
@@ -10710,58 +10742,58 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
-      <c r="B18" s="31">
+      <c r="B18" s="33">
         <v>10</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="26">
         <f>C9</f>
         <v>1.4813E-2</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="26">
         <f>E9</f>
         <v>3.7797999999999998E-2</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="26">
         <f>G9</f>
         <v>5.0018E-2</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="26">
         <f>I9</f>
         <v>3.0959E-2</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="26">
         <f>K9</f>
         <v>3.4669999999999999E-2</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="26">
         <f>M9</f>
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="31">
+      <c r="J18" s="33">
         <v>10</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="26">
         <f>D9</f>
         <v>3.5330000000000001E-3</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="26">
         <f>F9</f>
         <v>3.5769999999999999E-3</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="26">
         <f>H9</f>
         <v>3.6459999999999999E-3</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="26">
         <f>J9</f>
         <v>6.9100000000000003E-3</v>
       </c>
-      <c r="O18" s="24">
+      <c r="O18" s="26">
         <f>L9</f>
         <v>6.8599999999999998E-3</v>
       </c>
-      <c r="P18" s="24">
+      <c r="P18" s="26">
         <f>N9</f>
         <v>0</v>
       </c>
@@ -10770,58 +10802,58 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="31">
+      <c r="B19" s="33">
         <v>100</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="26">
         <f>C12</f>
         <v>0.137319</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="26">
         <f>E12</f>
         <v>0.25259199999999998</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="26">
         <f>G12</f>
         <v>0.29127199999999998</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="26">
         <f>I12</f>
         <v>0.30094500000000002</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="26">
         <f>K12</f>
         <v>0.33059300000000003</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="26">
         <f>M12</f>
         <v>0</v>
       </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="31">
+      <c r="J19" s="33">
         <v>100</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="26">
         <f>D12</f>
         <v>3.5555000000000003E-2</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="26">
         <f>F12</f>
         <v>3.7139999999999999E-2</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="26">
         <f>H12</f>
         <v>4.8350999999999998E-2</v>
       </c>
-      <c r="N19" s="24">
+      <c r="N19" s="26">
         <f>J12</f>
         <v>4.0295999999999998E-2</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O19" s="26">
         <f>L12</f>
         <v>3.8581999999999998E-2</v>
       </c>
-      <c r="P19" s="24">
+      <c r="P19" s="26">
         <f>N12</f>
         <v>0</v>
       </c>
@@ -10865,4 +10897,187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="21">
+        <v>100</v>
+      </c>
+      <c r="B4" s="20">
+        <f>0.000009</f>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C4" s="20">
+        <f>0.000011</f>
+        <v>1.1E-5</v>
+      </c>
+      <c r="D4" s="20">
+        <f>0.00001</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E4" s="20">
+        <f>AVERAGE(B4:D4)</f>
+        <v>9.9999999999999991E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
+        <v>100000</v>
+      </c>
+      <c r="B5" s="20">
+        <f>0.016101</f>
+        <v>1.6101000000000001E-2</v>
+      </c>
+      <c r="C5" s="20">
+        <f>0.015679</f>
+        <v>1.5678999999999998E-2</v>
+      </c>
+      <c r="D5" s="20">
+        <f>0.015501</f>
+        <v>1.5500999999999999E-2</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" ref="E5:E6" si="0">AVERAGE(B5:D5)</f>
+        <v>1.5760333333333335E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
+        <v>100000000</v>
+      </c>
+      <c r="B6" s="20">
+        <f>19.072549</f>
+        <v>19.072548999999999</v>
+      </c>
+      <c r="C6" s="20">
+        <v>20.351588</v>
+      </c>
+      <c r="D6" s="20">
+        <f>19.029688</f>
+        <v>19.029688</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="0"/>
+        <v>19.484608333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="21">
+        <v>100</v>
+      </c>
+      <c r="B10" s="20">
+        <f>0.000009</f>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C10" s="20">
+        <f>0.000011</f>
+        <v>1.1E-5</v>
+      </c>
+      <c r="D10" s="20">
+        <f>0.00001</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E10" s="20">
+        <f>AVERAGE(B10:D10)</f>
+        <v>9.9999999999999991E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
+        <v>100000</v>
+      </c>
+      <c r="B11" s="20">
+        <f>0.016101</f>
+        <v>1.6101000000000001E-2</v>
+      </c>
+      <c r="C11" s="20">
+        <f>0.015679</f>
+        <v>1.5678999999999998E-2</v>
+      </c>
+      <c r="D11" s="20">
+        <f>0.015501</f>
+        <v>1.5500999999999999E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" ref="E11:E12" si="1">AVERAGE(B11:D11)</f>
+        <v>1.5760333333333335E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
+        <v>100000000</v>
+      </c>
+      <c r="B12" s="20">
+        <f>19.072549</f>
+        <v>19.072548999999999</v>
+      </c>
+      <c r="C12" s="20">
+        <v>20.351588</v>
+      </c>
+      <c r="D12" s="20">
+        <f>19.029688</f>
+        <v>19.029688</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="1"/>
+        <v>19.484608333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>